--- a/data/trans_dic/P69$problemSueño-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P69$problemSueño-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2278286389103581</v>
+        <v>0.2082952419933448</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3100481222013446</v>
+        <v>0.3201396449830757</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2423383435916944</v>
+        <v>0.2373386149599889</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06945244576378695</v>
+        <v>0.08056908535202095</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1304862381574578</v>
+        <v>0.1339967148556215</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2318890683483459</v>
+        <v>0.235882016621899</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3076698809035642</v>
+        <v>0.3112555871052105</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1829793809503021</v>
+        <v>0.1849118003262362</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2097797959096792</v>
+        <v>0.2115100833726165</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3175807012442766</v>
+        <v>0.327104707904627</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3146855647830194</v>
+        <v>0.3252795051425627</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1588497405585522</v>
+        <v>0.1434918107540048</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5319959487045048</v>
+        <v>0.5033032859046529</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6255762629911428</v>
+        <v>0.6347855620483288</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5196053056394129</v>
+        <v>0.5293953923285678</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4052510045199859</v>
+        <v>0.4062155153070603</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4747618871202881</v>
+        <v>0.4823455834605625</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6126865909059648</v>
+        <v>0.6122537285881364</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6201881150527113</v>
+        <v>0.6278512384768324</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5456576036161502</v>
+        <v>0.5315899109039344</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4472255676959501</v>
+        <v>0.4482670768011108</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5635723632604152</v>
+        <v>0.5683561628788104</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.521199766677405</v>
+        <v>0.5192744334590468</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3930039471341235</v>
+        <v>0.3998409584130327</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1593630733640221</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3163475100393535</v>
+        <v>0.3163475100393536</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1796161600300464</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1361888698487533</v>
+        <v>0.1279593489034674</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1885683805665146</v>
+        <v>0.1992738824357361</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09135841039914196</v>
+        <v>0.08590133919377518</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1737185571506328</v>
+        <v>0.1565593694328722</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06208499193147272</v>
+        <v>0.06105473712491812</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06487888451102108</v>
+        <v>0.08533847134186437</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.147259651960144</v>
+        <v>0.1437996253613083</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2273062881885612</v>
+        <v>0.2351773695577271</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1452872453300962</v>
+        <v>0.1376698461249623</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1815576439092633</v>
+        <v>0.1778535883798863</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1331682972855479</v>
+        <v>0.1301499913063439</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2269099078661417</v>
+        <v>0.2320604946365628</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3627856542745752</v>
+        <v>0.3526556973646203</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4437623487550971</v>
+        <v>0.4468243642156169</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2628395252722651</v>
+        <v>0.2536068735909848</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5239668410878296</v>
+        <v>0.4951099731517493</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3378070242958788</v>
+        <v>0.3369600509817419</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.358248877543186</v>
+        <v>0.3886683508928352</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4151902056200964</v>
+        <v>0.4081739434436913</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4821389601975868</v>
+        <v>0.4805774955705065</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3186779369266124</v>
+        <v>0.3076411920860794</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3637224325209332</v>
+        <v>0.3776286370619099</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2872876141734349</v>
+        <v>0.2733100202522016</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4383662935798213</v>
+        <v>0.4623227351408628</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07203422726447012</v>
+        <v>0.05543878627827228</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1124349697193939</v>
+        <v>0.1123178834453856</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07080945997597593</v>
+        <v>0.0740422602642529</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04597971515395283</v>
+        <v>0.04593826146104357</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1042188799532193</v>
+        <v>0.1053682824165072</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1397594673218599</v>
+        <v>0.1495168082622851</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07919312546280806</v>
+        <v>0.07068405694375039</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1555678515259175</v>
+        <v>0.1515384870265552</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1317318387286235</v>
+        <v>0.127609824280192</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3504511958414894</v>
+        <v>0.3829007479456053</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.457526772092446</v>
+        <v>0.4585495206186695</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2187387370970214</v>
+        <v>0.2146806569495937</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2730187266726797</v>
+        <v>0.2693253036894745</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3267974682633498</v>
+        <v>0.3442966955563906</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.523960986188863</v>
+        <v>0.5208184769420234</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5369644019552117</v>
+        <v>0.5260701431405691</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3445970951937787</v>
+        <v>0.3411800148372622</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.293886165735749</v>
+        <v>0.2866947057613348</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4186754407736151</v>
+        <v>0.414306633866039</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2505216763671581</v>
+        <v>0.2454397159558366</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.276225060692462</v>
+        <v>0.2669742263852956</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1088371703398163</v>
+        <v>0.0978217991628126</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1732498091756045</v>
+        <v>0.1653341532604684</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.281432846313347</v>
+        <v>0.2777799971661503</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1876011828015662</v>
+        <v>0.184251898737468</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1879178345660553</v>
+        <v>0.192149026495042</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.267410830839225</v>
+        <v>0.2607479769248517</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2362983462704174</v>
+        <v>0.2310354990950209</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09555341122818573</v>
+        <v>0.09650820619509898</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2142268639573031</v>
+        <v>0.2231828203900132</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.321704375542871</v>
+        <v>0.328116879599182</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.242913184942458</v>
+        <v>0.2457327827169815</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3256064737746909</v>
+        <v>0.3272562860464273</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4622273427363199</v>
+        <v>0.4519579772520604</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.648808919535525</v>
+        <v>0.6363995557811541</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5302497374603503</v>
+        <v>0.5521225041623532</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2847860812542584</v>
+        <v>0.3212049042347527</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5417557301636267</v>
+        <v>0.5604920224632816</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6356398214823141</v>
+        <v>0.621945263298493</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4802744748351174</v>
+        <v>0.4843892864910314</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2669939172670547</v>
+        <v>0.265116730951109</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4400993030877881</v>
+        <v>0.4450058278346907</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5818846418830773</v>
+        <v>0.5888252923234134</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4659830974362315</v>
+        <v>0.4532383256165491</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.3484501758400865</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.09677490357587477</v>
+        <v>0.09677490357587473</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1462943066566882</v>
@@ -1229,7 +1229,7 @@
         <v>0.3546706584229876</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.09760478241883616</v>
+        <v>0.09760478241883615</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1246643282814766</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03623834350047123</v>
+        <v>0.03537476974802277</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.103227198483464</v>
+        <v>0.093439734673887</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02534915258017261</v>
+        <v>0.02628428683732275</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06770495002925064</v>
+        <v>0.07019411272221152</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0289640460915046</v>
+        <v>0.02932078407765046</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03055367213799863</v>
+        <v>0.02979594317022947</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03570463391974337</v>
+        <v>0.03506891701817148</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1496110639153813</v>
+        <v>0.1556480630965475</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03730526079948553</v>
+        <v>0.03830456315215125</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2954510912047359</v>
+        <v>0.3000580970327147</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3126405941871253</v>
+        <v>0.3351746837275992</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6579708231753185</v>
+        <v>0.6416518039255918</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2500078169792852</v>
+        <v>0.266402185330492</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5816312946363498</v>
+        <v>0.7185082446824499</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5863270167972947</v>
+        <v>0.5845622544114203</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8292712494366113</v>
+        <v>0.8356135722688414</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2604762343964647</v>
+        <v>0.2640935693102993</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2767539231536437</v>
+        <v>0.2688981006648221</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3184828681263575</v>
+        <v>0.329948652291606</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6032802516264328</v>
+        <v>0.6031954118180942</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1902496220889871</v>
+        <v>0.2031867467176452</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.08305758993774799</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.1521625555228731</v>
+        <v>0.152162555522873</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.1468846858869991</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.09824537170141269</v>
+        <v>0.1152959701676709</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06534424701298053</v>
+        <v>0.06863669752606086</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.06513283889121003</v>
+        <v>0.05519233269752853</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1252036602820823</v>
+        <v>0.1261152975488408</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2977300369655119</v>
+        <v>0.3007456260731094</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1461243116350082</v>
+        <v>0.1445562557064729</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.09514778000635035</v>
+        <v>0.1079623476462117</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1158787649318046</v>
+        <v>0.1179501541935547</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.09199159962093008</v>
+        <v>0.08419856440500732</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1258685853268622</v>
+        <v>0.1308022636684213</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.367827065114939</v>
+        <v>0.3788743996240374</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2843375280495535</v>
+        <v>0.2814244230720653</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.252318782942549</v>
+        <v>0.257708388885222</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3059192766431404</v>
+        <v>0.2906877305028623</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.381176974583637</v>
+        <v>0.5110549771807527</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6030793280803439</v>
+        <v>0.60669680788714</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8882432347451852</v>
+        <v>1</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3954891317077294</v>
+        <v>0.3917742727300196</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3166605385016547</v>
+        <v>0.3435849778887858</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3214223589965324</v>
+        <v>0.3218698125621424</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3952765582921396</v>
+        <v>0.4035497435870813</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2936852496968468</v>
+        <v>0.3021226652722014</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.2600189606114616</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.334884242015315</v>
+        <v>0.3348842420153151</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.2051829027251996</v>
@@ -1513,7 +1513,7 @@
         <v>0.21790598225168</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2755083637465355</v>
+        <v>0.2755083637465356</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1004242573523253</v>
+        <v>0.1048208148648124</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1457440749758848</v>
+        <v>0.1364347813811246</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.09874322078731539</v>
+        <v>0.09973902400937414</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1290083940123627</v>
+        <v>0.1243013975627971</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1450187643206781</v>
+        <v>0.1455390564237558</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1703398325410972</v>
+        <v>0.1745911884817638</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1429096615778804</v>
+        <v>0.1553918148531913</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2454498755524238</v>
+        <v>0.2422290827035375</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1405303941273647</v>
+        <v>0.1411243783355269</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1835368359099568</v>
+        <v>0.1752854472233595</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1500835594284631</v>
+        <v>0.155332044672746</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2146079978618765</v>
+        <v>0.2118207631546073</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2789497370154668</v>
+        <v>0.2768782350123839</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3950960754220776</v>
+        <v>0.3966293153743449</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2985201135826346</v>
+        <v>0.304119957586752</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3332214516957267</v>
+        <v>0.3383985181849675</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4043974763185235</v>
+        <v>0.4264447662925446</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4326154383265788</v>
+        <v>0.4306283744103921</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3921756388056076</v>
+        <v>0.3924794711797047</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4450630919435484</v>
+        <v>0.4227834654255677</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2827187825844391</v>
+        <v>0.2858514814749771</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3627950229341464</v>
+        <v>0.3565618567468923</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2918802076528147</v>
+        <v>0.3075263951929132</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3574703403360249</v>
+        <v>0.3473700828303579</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.2892974497059823</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.08781531990746833</v>
+        <v>0.08781531990746827</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.2852958075201707</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1893346514904204</v>
+        <v>0.1900185663820061</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.05451338528517817</v>
+        <v>0.06922059347069974</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1473111877647547</v>
+        <v>0.1556539279567167</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03459249606710812</v>
+        <v>0.03402500582619548</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1658591553358625</v>
+        <v>0.1634413019776169</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1064250731776096</v>
+        <v>0.1110429667788806</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.07395451260340916</v>
+        <v>0.04967595587223843</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.08240867347311942</v>
+        <v>0.071824058960419</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.212337797287665</v>
+        <v>0.2080519964978336</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1110386188915582</v>
+        <v>0.1125343099193036</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1578378133742506</v>
+        <v>0.1552321531410547</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.06987638564087453</v>
+        <v>0.06334287562425506</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3569097920481691</v>
+        <v>0.3612841735763705</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2719398158707026</v>
+        <v>0.2916325552279485</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4539422669298494</v>
+        <v>0.4709887669925856</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.187008077328199</v>
+        <v>0.1935164629560518</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.4177661128659956</v>
+        <v>0.4173562195226851</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4976869619149311</v>
+        <v>0.4792372248579899</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.452918872996197</v>
+        <v>0.4410758534073983</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2637114370406248</v>
+        <v>0.2562769090003382</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.352660299339602</v>
+        <v>0.3494115636377897</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3133093600556022</v>
+        <v>0.3043708877922039</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3971398019139135</v>
+        <v>0.396314570513476</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1763931768483866</v>
+        <v>0.1779451914356942</v>
       </c>
     </row>
     <row r="28">
@@ -1785,7 +1785,7 @@
         <v>0.2732659854733177</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.2389536729430189</v>
+        <v>0.238953672943019</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1894013191336443</v>
+        <v>0.1873924258736802</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.212914236945133</v>
+        <v>0.2132797008437958</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1946727549170868</v>
+        <v>0.1941660720578201</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1568703691854462</v>
+        <v>0.1581318524584129</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1619313647916679</v>
+        <v>0.166400985339355</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2335090934262103</v>
+        <v>0.2320380269767979</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.259377463026892</v>
+        <v>0.2617988119915161</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.239574652690845</v>
+        <v>0.2431408857475938</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1904501091331066</v>
+        <v>0.1910048197338785</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2355052811714541</v>
+        <v>0.2355155119513595</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.2332539957566478</v>
+        <v>0.237417929821642</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2083285225840051</v>
+        <v>0.2077348694847579</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2691109502259632</v>
+        <v>0.2680494230285334</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3119445969682927</v>
+        <v>0.3135876314678778</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.294735158591546</v>
+        <v>0.2971918185816532</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2533460967370677</v>
+        <v>0.2574734161691136</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2746614329706836</v>
+        <v>0.2743791551200981</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3578815237715143</v>
+        <v>0.3603438400527519</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3913119486766963</v>
+        <v>0.3878154785327563</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3193804785426804</v>
+        <v>0.3266112253228539</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2576141302133736</v>
+        <v>0.2555731421493981</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3109555012018569</v>
+        <v>0.3145309897047655</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3092089112427381</v>
+        <v>0.3176106768921249</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2733335754438057</v>
+        <v>0.2706334494887445</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9761</v>
+        <v>8924</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>12518</v>
+        <v>12925</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13740</v>
+        <v>13456</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1720</v>
+        <v>1996</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3734</v>
+        <v>3835</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6760</v>
+        <v>6876</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12579</v>
+        <v>12725</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2965</v>
+        <v>2996</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>14991</v>
+        <v>15115</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>22080</v>
+        <v>22742</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>30707</v>
+        <v>31741</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>6509</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>22793</v>
+        <v>21564</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>25256</v>
+        <v>25628</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>29460</v>
+        <v>30015</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10038</v>
+        <v>10062</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>13587</v>
+        <v>13804</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>17861</v>
+        <v>17848</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>25356</v>
+        <v>25669</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>8842</v>
+        <v>8614</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>31960</v>
+        <v>32035</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>39182</v>
+        <v>39515</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>50859</v>
+        <v>50671</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>16104</v>
+        <v>16384</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9860</v>
+        <v>9264</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10671</v>
+        <v>11277</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7563</v>
+        <v>7111</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>8340</v>
+        <v>7516</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2029</v>
+        <v>1996</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2226</v>
+        <v>2928</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>6288</v>
+        <v>6140</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>10437</v>
+        <v>10798</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>15267</v>
+        <v>14467</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>16504</v>
+        <v>16168</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>16710</v>
+        <v>16332</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>21312</v>
+        <v>21795</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>26265</v>
+        <v>25531</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>25113</v>
+        <v>25286</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>21759</v>
+        <v>20995</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>25154</v>
+        <v>23769</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11042</v>
+        <v>11015</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>12293</v>
+        <v>13337</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>17727</v>
+        <v>17428</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>22137</v>
+        <v>22065</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>33488</v>
+        <v>32328</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>33064</v>
+        <v>34328</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>36050</v>
+        <v>34296</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>41172</v>
+        <v>43422</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2638</v>
+        <v>2030</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3466</v>
+        <v>3624</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1869</v>
+        <v>1890</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6404</v>
+        <v>6852</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>4620</v>
+        <v>4124</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>6727</v>
+        <v>6553</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>12484</v>
+        <v>12093</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12832</v>
+        <v>14020</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11578</v>
+        <v>11604</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4649</v>
+        <v>4563</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13362</v>
+        <v>13181</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7099</v>
+        <v>7480</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9397</v>
+        <v>9341</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6713</v>
+        <v>6576</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>15791</v>
+        <v>15635</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>17145</v>
+        <v>16725</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>18104</v>
+        <v>17915</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>8456</v>
+        <v>8285</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>26177</v>
+        <v>25301</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6348</v>
+        <v>5705</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7772</v>
+        <v>7417</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9137</v>
+        <v>9018</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10162</v>
+        <v>9980</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5550</v>
+        <v>5675</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8005</v>
+        <v>7805</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>12489</v>
+        <v>12211</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>7743</v>
+        <v>7820</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>15937</v>
+        <v>16604</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>20074</v>
+        <v>20474</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>25996</v>
+        <v>26298</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18990</v>
+        <v>19087</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>20736</v>
+        <v>20275</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>21064</v>
+        <v>20661</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28722</v>
+        <v>29906</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6466</v>
+        <v>7293</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>16001</v>
+        <v>16554</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>19028</v>
+        <v>18618</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>25384</v>
+        <v>25601</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>21634</v>
+        <v>21482</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>32741</v>
+        <v>33106</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>36310</v>
+        <v>36743</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>49869</v>
+        <v>48505</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>832</v>
+        <v>812</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1535</v>
+        <v>1389</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>790</v>
+        <v>819</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>914</v>
+        <v>892</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>994</v>
+        <v>976</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3088</v>
+        <v>3213</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1301</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6782</v>
+        <v>6888</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5055</v>
+        <v>5419</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9784</v>
+        <v>9541</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>5414</v>
+        <v>5769</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>4054</v>
+        <v>5008</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>6837</v>
+        <v>6817</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>4786</v>
+        <v>4822</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>3441</v>
+        <v>3489</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>8282</v>
+        <v>8047</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>8863</v>
+        <v>9182</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>12452</v>
+        <v>12451</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>6633</v>
+        <v>7084</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4108</v>
+        <v>4821</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2835</v>
+        <v>2977</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2141</v>
+        <v>1814</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1901</v>
+        <v>1915</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2211</v>
+        <v>2234</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>4402</v>
+        <v>4355</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>5319</v>
+        <v>6035</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>6786</v>
+        <v>6908</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>2747</v>
+        <v>2514</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>7929</v>
+        <v>8240</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>15379</v>
+        <v>15841</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>12335</v>
+        <v>12208</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5661</v>
+        <v>5781</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>10055</v>
+        <v>9554</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>5372</v>
+        <v>7203</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>9157</v>
+        <v>9212</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>6597</v>
+        <v>7427</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>11914</v>
+        <v>11802</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>17702</v>
+        <v>19207</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>18824</v>
+        <v>18850</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>11803</v>
+        <v>12050</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>18500</v>
+        <v>19032</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>8800</v>
+        <v>9185</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>7933</v>
+        <v>7426</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>7736</v>
+        <v>7814</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>10963</v>
+        <v>10563</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>6313</v>
+        <v>6336</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>7900</v>
+        <v>8098</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>7957</v>
+        <v>8653</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>19812</v>
+        <v>19552</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>18432</v>
+        <v>18510</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>18502</v>
+        <v>17671</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>20115</v>
+        <v>20818</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>35559</v>
+        <v>35097</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>24444</v>
+        <v>24262</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>21505</v>
+        <v>21589</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>23387</v>
+        <v>23825</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>28316</v>
+        <v>28756</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>17605</v>
+        <v>18565</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>20065</v>
+        <v>19973</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>21837</v>
+        <v>21854</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>35924</v>
+        <v>34126</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>37082</v>
+        <v>37493</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>36573</v>
+        <v>35945</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>39119</v>
+        <v>41216</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>59231</v>
+        <v>57557</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>20621</v>
+        <v>20696</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2460</v>
+        <v>3123</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>5785</v>
+        <v>6113</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2282</v>
+        <v>2244</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>8257</v>
+        <v>8137</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>3264</v>
+        <v>3406</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1583</v>
+        <v>1063</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>4737</v>
+        <v>4129</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>33698</v>
+        <v>33018</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>8416</v>
+        <v>8529</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>9577</v>
+        <v>9419</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>8625</v>
+        <v>7819</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>38873</v>
+        <v>39349</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>12270</v>
+        <v>13158</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>17828</v>
+        <v>18498</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>12334</v>
+        <v>12764</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>20799</v>
+        <v>20778</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>15265</v>
+        <v>14699</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>9692</v>
+        <v>9439</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>15159</v>
+        <v>14732</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>55968</v>
+        <v>55452</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>23746</v>
+        <v>23069</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>24096</v>
+        <v>24046</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>21774</v>
+        <v>21965</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>89300</v>
+        <v>88353</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>69458</v>
+        <v>69577</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>67770</v>
+        <v>67593</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>59821</v>
+        <v>60302</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>35644</v>
+        <v>36628</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>50166</v>
+        <v>49850</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>56103</v>
+        <v>56627</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>82015</v>
+        <v>83236</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>131716</v>
+        <v>132100</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>127422</v>
+        <v>127428</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>131653</v>
+        <v>134003</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>150762</v>
+        <v>150333</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>126882</v>
+        <v>126381</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>101764</v>
+        <v>102300</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>102604</v>
+        <v>103459</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>96612</v>
+        <v>98185</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>60459</v>
+        <v>60397</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>76885</v>
+        <v>77414</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>84640</v>
+        <v>83884</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>109335</v>
+        <v>111810</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>178167</v>
+        <v>176756</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>168246</v>
+        <v>170180</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>174523</v>
+        <v>179266</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>197805</v>
+        <v>195851</v>
       </c>
     </row>
     <row r="40">
